--- a/artfynd/A 5338-2023.xlsx
+++ b/artfynd/A 5338-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106841998</v>
+        <v>106887313</v>
       </c>
       <c r="B2" t="n">
-        <v>73631</v>
+        <v>8377</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6426</v>
+        <v>106545</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Lommegölen, Ög</t>
+          <t>Sågarstugan, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>569533.5057985969</v>
+        <v>569192.9372707257</v>
       </c>
       <c r="R2" t="n">
-        <v>6516905.04172124</v>
+        <v>6517302.807149721</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -781,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106843731</v>
+        <v>106887293</v>
       </c>
       <c r="B3" t="n">
-        <v>78098</v>
+        <v>89356</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,42 +804,41 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6453</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Åksjöbäcken, Ög</t>
+          <t>Sågarstugan, Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>569013.1431732187</v>
+        <v>569074.3303095788</v>
       </c>
       <c r="R3" t="n">
-        <v>6517191.766254766</v>
+        <v>6517488.350769219</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -894,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106842020</v>
+        <v>106887341</v>
       </c>
       <c r="B4" t="n">
-        <v>73631</v>
+        <v>77177</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,42 +916,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6426</v>
+        <v>353</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Lommegölen, Ög</t>
+          <t>Sågarstugan, Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>569516.3708445521</v>
+        <v>569195.0325455354</v>
       </c>
       <c r="R4" t="n">
-        <v>6516904.73405186</v>
+        <v>6517301.807767596</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1007,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>106887313</v>
+        <v>106887298</v>
       </c>
       <c r="B5" t="n">
-        <v>8377</v>
+        <v>89392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1028,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106545</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1059,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>569192.9372707257</v>
+        <v>569080.0054094553</v>
       </c>
       <c r="R5" t="n">
-        <v>6517302.807149721</v>
+        <v>6517519.555292327</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1131,10 +1128,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106887339</v>
+        <v>106887302</v>
       </c>
       <c r="B6" t="n">
-        <v>93276</v>
+        <v>89412</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1143,25 +1140,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2170</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1171,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>569569.4079263338</v>
+        <v>569190.4715135928</v>
       </c>
       <c r="R6" t="n">
-        <v>6516901.53884996</v>
+        <v>6517324.536454267</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1243,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106887300</v>
+        <v>106887322</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>96334</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1255,38 +1252,50 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Sågarstugan, Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>569062.0730808221</v>
+        <v>569110.1111427239</v>
       </c>
       <c r="R7" t="n">
-        <v>6517098.283523316</v>
+        <v>6517374.941940295</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1337,6 +1346,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1355,10 +1365,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106887293</v>
+        <v>106887344</v>
       </c>
       <c r="B8" t="n">
-        <v>89356</v>
+        <v>90653</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1371,21 +1381,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1395,10 +1405,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>569074.3303095788</v>
+        <v>569032.3385694288</v>
       </c>
       <c r="R8" t="n">
-        <v>6517488.350769219</v>
+        <v>6517571.579940961</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1467,10 +1477,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106887297</v>
+        <v>106841998</v>
       </c>
       <c r="B9" t="n">
-        <v>94764</v>
+        <v>73631</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,37 +1493,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2326</v>
+        <v>6426</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vanlig rörsvepemossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Liochlaena lanceolata</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Nees</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Sågarstugan, Ög</t>
+          <t>Lommegölen, Ög</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>569075.9716719144</v>
+        <v>569533.5057985969</v>
       </c>
       <c r="R9" t="n">
-        <v>6517105.271198099</v>
+        <v>6516905.04172124</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1567,22 +1578,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106887332</v>
+        <v>106843731</v>
       </c>
       <c r="B10" t="n">
-        <v>4717</v>
+        <v>78098</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1591,41 +1602,42 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>102306</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Sågarstugan, Ög</t>
+          <t>Åksjöbäcken, Ög</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>569376.2818465256</v>
+        <v>569013.1431732187</v>
       </c>
       <c r="R10" t="n">
-        <v>6516751.34394509</v>
+        <v>6517191.766254766</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1679,19 +1691,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106887324</v>
+        <v>106842020</v>
       </c>
       <c r="B11" t="n">
         <v>73631</v>
@@ -1725,19 +1737,20 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Sågarstugan, Ög</t>
+          <t>Lommegölen, Ög</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>569556.5851697911</v>
+        <v>569516.3708445521</v>
       </c>
       <c r="R11" t="n">
-        <v>6516892.494471586</v>
+        <v>6516904.73405186</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1791,22 +1804,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106887292</v>
+        <v>106887339</v>
       </c>
       <c r="B12" t="n">
-        <v>94121</v>
+        <v>93276</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1815,25 +1828,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>53</v>
+        <v>2170</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1843,10 +1856,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>569576.7890683134</v>
+        <v>569569.4079263338</v>
       </c>
       <c r="R12" t="n">
-        <v>6516895.4498209</v>
+        <v>6516901.53884996</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1915,10 +1928,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106887347</v>
+        <v>106887300</v>
       </c>
       <c r="B13" t="n">
-        <v>8367</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1927,25 +1940,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>106554</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1955,10 +1968,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>569092.76479402</v>
+        <v>569062.0730808221</v>
       </c>
       <c r="R13" t="n">
-        <v>6517153.785538184</v>
+        <v>6517098.283523316</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2027,10 +2040,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106887295</v>
+        <v>106887297</v>
       </c>
       <c r="B14" t="n">
-        <v>78098</v>
+        <v>94764</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2039,25 +2052,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6453</v>
+        <v>2326</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Vanlig rörsvepemossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Liochlaena lanceolata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Nees</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2067,10 +2080,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>569039.6392969154</v>
+        <v>569075.9716719144</v>
       </c>
       <c r="R14" t="n">
-        <v>6517162.169650115</v>
+        <v>6517105.271198099</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2139,10 +2152,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106887341</v>
+        <v>106887332</v>
       </c>
       <c r="B15" t="n">
-        <v>77177</v>
+        <v>4717</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2151,25 +2164,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>353</v>
+        <v>102306</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2179,10 +2192,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>569195.0325455354</v>
+        <v>569376.2818465256</v>
       </c>
       <c r="R15" t="n">
-        <v>6517301.807767596</v>
+        <v>6516751.34394509</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2251,10 +2264,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106887343</v>
+        <v>106887324</v>
       </c>
       <c r="B16" t="n">
-        <v>77177</v>
+        <v>73631</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2263,25 +2276,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>353</v>
+        <v>6426</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2291,10 +2304,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>569105.2454455568</v>
+        <v>569556.5851697911</v>
       </c>
       <c r="R16" t="n">
-        <v>6517182.003642241</v>
+        <v>6516892.494471586</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2363,10 +2376,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106887346</v>
+        <v>106887292</v>
       </c>
       <c r="B17" t="n">
-        <v>93375</v>
+        <v>94121</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2375,25 +2388,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2180</v>
+        <v>53</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2403,10 +2416,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>569095.2960860815</v>
+        <v>569576.7890683134</v>
       </c>
       <c r="R17" t="n">
-        <v>6517157.459750648</v>
+        <v>6516895.4498209</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2475,7 +2488,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>106887349</v>
+        <v>106887347</v>
       </c>
       <c r="B18" t="n">
         <v>8367</v>
@@ -2515,10 +2528,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>569080.7476843621</v>
+        <v>569092.76479402</v>
       </c>
       <c r="R18" t="n">
-        <v>6517128.686175198</v>
+        <v>6517153.785538184</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2587,10 +2600,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106887345</v>
+        <v>106887295</v>
       </c>
       <c r="B19" t="n">
-        <v>5113</v>
+        <v>78098</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2599,25 +2612,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100526</v>
+        <v>6453</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2627,10 +2640,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>569087.0693690868</v>
+        <v>569039.6392969154</v>
       </c>
       <c r="R19" t="n">
-        <v>6517094.581935607</v>
+        <v>6517162.169650115</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2699,10 +2712,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106887338</v>
+        <v>106887343</v>
       </c>
       <c r="B20" t="n">
-        <v>93276</v>
+        <v>77177</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2711,25 +2724,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2170</v>
+        <v>353</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2739,10 +2752,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>569591.8308836069</v>
+        <v>569105.2454455568</v>
       </c>
       <c r="R20" t="n">
-        <v>6516867.722567636</v>
+        <v>6517182.003642241</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2811,10 +2824,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106887298</v>
+        <v>106887346</v>
       </c>
       <c r="B21" t="n">
-        <v>89392</v>
+        <v>93375</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2823,25 +2836,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>2180</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2851,10 +2864,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>569080.0054094553</v>
+        <v>569095.2960860815</v>
       </c>
       <c r="R21" t="n">
-        <v>6517519.555292327</v>
+        <v>6517157.459750648</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2923,10 +2936,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>106887302</v>
+        <v>106887349</v>
       </c>
       <c r="B22" t="n">
-        <v>89412</v>
+        <v>8367</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2935,25 +2948,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5442</v>
+        <v>106554</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2963,10 +2976,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>569190.4715135928</v>
+        <v>569080.7476843621</v>
       </c>
       <c r="R22" t="n">
-        <v>6517324.536454267</v>
+        <v>6517128.686175198</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3035,10 +3048,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106887342</v>
+        <v>106887345</v>
       </c>
       <c r="B23" t="n">
-        <v>77177</v>
+        <v>5113</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3047,25 +3060,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>353</v>
+        <v>100526</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3075,10 +3088,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>569038.5731599304</v>
+        <v>569087.0693690868</v>
       </c>
       <c r="R23" t="n">
-        <v>6517163.705937579</v>
+        <v>6517094.581935607</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3147,10 +3160,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>106887322</v>
+        <v>106887338</v>
       </c>
       <c r="B24" t="n">
-        <v>96334</v>
+        <v>93276</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3159,50 +3172,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>2170</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
+          <t>Hedw.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Sågarstugan, Ög</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>569110.1111427239</v>
+        <v>569591.8308836069</v>
       </c>
       <c r="R24" t="n">
-        <v>6517374.941940295</v>
+        <v>6516867.722567636</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3253,7 +3254,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3272,10 +3272,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>106887344</v>
+        <v>106887342</v>
       </c>
       <c r="B25" t="n">
-        <v>90653</v>
+        <v>77177</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3284,25 +3284,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4364</v>
+        <v>353</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3312,10 +3312,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>569032.3385694288</v>
+        <v>569038.5731599304</v>
       </c>
       <c r="R25" t="n">
-        <v>6517571.579940961</v>
+        <v>6517163.705937579</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>

--- a/artfynd/A 5338-2023.xlsx
+++ b/artfynd/A 5338-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>106887313</v>
+        <v>106841998</v>
       </c>
       <c r="B2" t="n">
-        <v>8377</v>
+        <v>73631</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106545</v>
+        <v>6426</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sågarstugan, Ög</t>
+          <t>Lommegölen, Ög</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>569192.9372707257</v>
+        <v>569533.5057985969</v>
       </c>
       <c r="R2" t="n">
-        <v>6517302.807149721</v>
+        <v>6516905.04172124</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,22 +781,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>106887293</v>
+        <v>106843731</v>
       </c>
       <c r="B3" t="n">
-        <v>89356</v>
+        <v>78098</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,41 +805,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>6453</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Sågarstugan, Ög</t>
+          <t>Åksjöbäcken, Ög</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>569074.3303095788</v>
+        <v>569013.1431732187</v>
       </c>
       <c r="R3" t="n">
-        <v>6517488.350769219</v>
+        <v>6517191.766254766</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -892,22 +894,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>106887341</v>
+        <v>106842020</v>
       </c>
       <c r="B4" t="n">
-        <v>77177</v>
+        <v>73631</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,41 +918,42 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>353</v>
+        <v>6426</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sågarstugan, Ög</t>
+          <t>Lommegölen, Ög</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>569195.0325455354</v>
+        <v>569516.3708445521</v>
       </c>
       <c r="R4" t="n">
-        <v>6517301.807767596</v>
+        <v>6516904.73405186</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1004,22 +1007,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Marika Sjödin</t>
+          <t>Eva Siljeholm</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Marika Sjödin, Eva Siljeholm</t>
+          <t>Eva Siljeholm, Marika Sjödin</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>106887298</v>
+        <v>106887313</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>8377</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>106545</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1056,10 +1059,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>569080.0054094553</v>
+        <v>569192.9372707257</v>
       </c>
       <c r="R5" t="n">
-        <v>6517519.555292327</v>
+        <v>6517302.807149721</v>
       </c>
       <c r="S5" t="n">
         <v>15</v>
@@ -1128,10 +1131,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106887302</v>
+        <v>106887339</v>
       </c>
       <c r="B6" t="n">
-        <v>89412</v>
+        <v>93276</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1140,25 +1143,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>2170</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1168,10 +1171,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>569190.4715135928</v>
+        <v>569569.4079263338</v>
       </c>
       <c r="R6" t="n">
-        <v>6517324.536454267</v>
+        <v>6516901.53884996</v>
       </c>
       <c r="S6" t="n">
         <v>15</v>
@@ -1240,10 +1243,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>106887322</v>
+        <v>106887300</v>
       </c>
       <c r="B7" t="n">
-        <v>96334</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1252,50 +1255,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Sågarstugan, Ög</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>569110.1111427239</v>
+        <v>569062.0730808221</v>
       </c>
       <c r="R7" t="n">
-        <v>6517374.941940295</v>
+        <v>6517098.283523316</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1346,7 +1337,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1365,10 +1355,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106887344</v>
+        <v>106887293</v>
       </c>
       <c r="B8" t="n">
-        <v>90653</v>
+        <v>89356</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1381,21 +1371,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1405,10 +1395,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>569032.3385694288</v>
+        <v>569074.3303095788</v>
       </c>
       <c r="R8" t="n">
-        <v>6517571.579940961</v>
+        <v>6517488.350769219</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1477,10 +1467,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>106841998</v>
+        <v>106887297</v>
       </c>
       <c r="B9" t="n">
-        <v>73631</v>
+        <v>94764</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1493,38 +1483,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6426</v>
+        <v>2326</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vanlig rörsvepemossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Liochlaena lanceolata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Nees</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Lommegölen, Ög</t>
+          <t>Sågarstugan, Ög</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>569533.5057985969</v>
+        <v>569075.9716719144</v>
       </c>
       <c r="R9" t="n">
-        <v>6516905.04172124</v>
+        <v>6517105.271198099</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1578,22 +1567,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>106843731</v>
+        <v>106887332</v>
       </c>
       <c r="B10" t="n">
-        <v>78098</v>
+        <v>4717</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1602,42 +1591,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>102306</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Åksjöbäcken, Ög</t>
+          <t>Sågarstugan, Ög</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>569013.1431732187</v>
+        <v>569376.2818465256</v>
       </c>
       <c r="R10" t="n">
-        <v>6517191.766254766</v>
+        <v>6516751.34394509</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1691,19 +1679,19 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106842020</v>
+        <v>106887324</v>
       </c>
       <c r="B11" t="n">
         <v>73631</v>
@@ -1737,20 +1725,19 @@
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Lommegölen, Ög</t>
+          <t>Sågarstugan, Ög</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>569516.3708445521</v>
+        <v>569556.5851697911</v>
       </c>
       <c r="R11" t="n">
-        <v>6516904.73405186</v>
+        <v>6516892.494471586</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1804,22 +1791,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Eva Siljeholm</t>
+          <t>Marika Sjödin</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Eva Siljeholm, Marika Sjödin</t>
+          <t>Marika Sjödin, Eva Siljeholm</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>106887339</v>
+        <v>106887292</v>
       </c>
       <c r="B12" t="n">
-        <v>93276</v>
+        <v>94121</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1828,25 +1815,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2170</v>
+        <v>53</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1856,10 +1843,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>569569.4079263338</v>
+        <v>569576.7890683134</v>
       </c>
       <c r="R12" t="n">
-        <v>6516901.53884996</v>
+        <v>6516895.4498209</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1928,10 +1915,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>106887300</v>
+        <v>106887347</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>8367</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1940,25 +1927,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>106554</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1968,10 +1955,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>569062.0730808221</v>
+        <v>569092.76479402</v>
       </c>
       <c r="R13" t="n">
-        <v>6517098.283523316</v>
+        <v>6517153.785538184</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2040,10 +2027,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106887297</v>
+        <v>106887295</v>
       </c>
       <c r="B14" t="n">
-        <v>94764</v>
+        <v>78098</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2052,25 +2039,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2326</v>
+        <v>6453</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vanlig rörsvepemossa</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Liochlaena lanceolata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nees</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2080,10 +2067,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>569075.9716719144</v>
+        <v>569039.6392969154</v>
       </c>
       <c r="R14" t="n">
-        <v>6517105.271198099</v>
+        <v>6517162.169650115</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2152,10 +2139,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106887332</v>
+        <v>106887341</v>
       </c>
       <c r="B15" t="n">
-        <v>4717</v>
+        <v>77177</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2164,25 +2151,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>102306</v>
+        <v>353</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2192,10 +2179,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>569376.2818465256</v>
+        <v>569195.0325455354</v>
       </c>
       <c r="R15" t="n">
-        <v>6516751.34394509</v>
+        <v>6517301.807767596</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2264,10 +2251,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>106887324</v>
+        <v>106887343</v>
       </c>
       <c r="B16" t="n">
-        <v>73631</v>
+        <v>77177</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2276,25 +2263,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6426</v>
+        <v>353</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2304,10 +2291,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>569556.5851697911</v>
+        <v>569105.2454455568</v>
       </c>
       <c r="R16" t="n">
-        <v>6516892.494471586</v>
+        <v>6517182.003642241</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2376,10 +2363,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>106887292</v>
+        <v>106887346</v>
       </c>
       <c r="B17" t="n">
-        <v>94121</v>
+        <v>93375</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2388,25 +2375,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>53</v>
+        <v>2180</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Blåmossa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Leucobryum glaucum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Hedw.) Ångstr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2416,10 +2403,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>569576.7890683134</v>
+        <v>569095.2960860815</v>
       </c>
       <c r="R17" t="n">
-        <v>6516895.4498209</v>
+        <v>6517157.459750648</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2488,7 +2475,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>106887347</v>
+        <v>106887349</v>
       </c>
       <c r="B18" t="n">
         <v>8367</v>
@@ -2528,10 +2515,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>569092.76479402</v>
+        <v>569080.7476843621</v>
       </c>
       <c r="R18" t="n">
-        <v>6517153.785538184</v>
+        <v>6517128.686175198</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2600,10 +2587,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106887295</v>
+        <v>106887345</v>
       </c>
       <c r="B19" t="n">
-        <v>78098</v>
+        <v>5113</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2612,25 +2599,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>100526</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2640,10 +2627,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>569039.6392969154</v>
+        <v>569087.0693690868</v>
       </c>
       <c r="R19" t="n">
-        <v>6517162.169650115</v>
+        <v>6517094.581935607</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2712,10 +2699,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>106887343</v>
+        <v>106887338</v>
       </c>
       <c r="B20" t="n">
-        <v>77177</v>
+        <v>93276</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2724,25 +2711,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>353</v>
+        <v>2170</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2752,10 +2739,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>569105.2454455568</v>
+        <v>569591.8308836069</v>
       </c>
       <c r="R20" t="n">
-        <v>6517182.003642241</v>
+        <v>6516867.722567636</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2824,10 +2811,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>106887346</v>
+        <v>106887298</v>
       </c>
       <c r="B21" t="n">
-        <v>93375</v>
+        <v>89392</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2836,25 +2823,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2180</v>
+        <v>1202</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blåmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Leucobryum glaucum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hedw.) Ångstr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2864,10 +2851,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>569095.2960860815</v>
+        <v>569080.0054094553</v>
       </c>
       <c r="R21" t="n">
-        <v>6517157.459750648</v>
+        <v>6517519.555292327</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2936,10 +2923,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>106887349</v>
+        <v>106887302</v>
       </c>
       <c r="B22" t="n">
-        <v>8367</v>
+        <v>89412</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2948,25 +2935,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>106554</v>
+        <v>5442</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2976,10 +2963,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>569080.7476843621</v>
+        <v>569190.4715135928</v>
       </c>
       <c r="R22" t="n">
-        <v>6517128.686175198</v>
+        <v>6517324.536454267</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3048,10 +3035,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>106887345</v>
+        <v>106887342</v>
       </c>
       <c r="B23" t="n">
-        <v>5113</v>
+        <v>77177</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3060,25 +3047,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100526</v>
+        <v>353</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3088,10 +3075,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>569087.0693690868</v>
+        <v>569038.5731599304</v>
       </c>
       <c r="R23" t="n">
-        <v>6517094.581935607</v>
+        <v>6517163.705937579</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3160,10 +3147,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>106887338</v>
+        <v>106887322</v>
       </c>
       <c r="B24" t="n">
-        <v>93276</v>
+        <v>96334</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3172,38 +3159,50 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2170</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Hedw.</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Sågarstugan, Ög</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>569591.8308836069</v>
+        <v>569110.1111427239</v>
       </c>
       <c r="R24" t="n">
-        <v>6516867.722567636</v>
+        <v>6517374.941940295</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3254,6 +3253,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3272,10 +3272,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>106887342</v>
+        <v>106887344</v>
       </c>
       <c r="B25" t="n">
-        <v>77177</v>
+        <v>90653</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3284,25 +3284,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>353</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3312,10 +3312,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>569038.5731599304</v>
+        <v>569032.3385694288</v>
       </c>
       <c r="R25" t="n">
-        <v>6517163.705937579</v>
+        <v>6517571.579940961</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
